--- a/data/test.XLSX
+++ b/data/test.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gennady\Skypro_learning\last_operaitions_vidget\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423EB7CF-3CB9-4CED-ADBA-6D4E16FCED21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75F905-E7D5-4F95-AE28-C9A8AB13B267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17745" yWindow="465" windowWidth="10515" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
